--- a/console/Elastic-Compute/Virtual-Machine/compute_mixins/computeActions.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/compute_mixins/computeActions.xlsx
@@ -1,25 +1,536 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="7905"/>
+  </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>confirm_start_vm</t>
+  </si>
+  <si>
+    <t>Confirm to start</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>'Start'</t>
+  </si>
+  <si>
+    <t>confirm_stop_vm</t>
+  </si>
+  <si>
+    <t>Confirm to stop</t>
+  </si>
+  <si>
+    <t>stop_tips</t>
+  </si>
+  <si>
+    <t>'Stop Notification'</t>
+  </si>
+  <si>
+    <t>cofirm_restart_vm</t>
+  </si>
+  <si>
+    <t>Confirm to reboot</t>
+  </si>
+  <si>
+    <t>restart_tips</t>
+  </si>
+  <si>
+    <t>'Reboot Notification'</t>
+  </si>
+  <si>
+    <t>user_is_disabled</t>
+  </si>
+  <si>
+    <t>User account has been disabled</t>
+  </si>
+  <si>
+    <t>money_isNot_enough</t>
+  </si>
+  <si>
+    <t>'Insufficient balance, please recharge now'</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>'Notification'</t>
+  </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>'Recharge'</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>'Cancel'</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>no_auth_to_operate</t>
+  </si>
+  <si>
+    <t>'No access to operate'</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>'OK'</t>
+  </si>
+  <si>
+    <t>unbind_pip</t>
+  </si>
+  <si>
+    <t>'Disassociate EIP'</t>
+  </si>
+  <si>
+    <t>unbind_tips</t>
+  </si>
+  <si>
+    <t>If the EIP needs to be associated after disassociation, it only supports associating the EIP that is in the same 'availability zone with the virtual machine or that has the full availability zone attribute'</t>
+  </si>
+  <si>
+    <t>confirm_unbind_pip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Confirm to disassociate EIP </t>
+  </si>
+  <si>
+    <t>oprate_success</t>
+  </si>
+  <si>
+    <t>'Operate successfully'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确认启动云主机</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确认停止云主机</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确认重启云主机</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>用户已经被禁用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>提示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>启动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>停止提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>重启提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>余额不足，是否去充值？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>提示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>无权操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>解绑公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>解绑后若需绑定公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，仅支持绑定与云主机同可用区或带全可用区属性的公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确认解绑公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">IP </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>操作成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +553,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,159 +894,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="229.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>confirm_start_vm</v>
-      </c>
-      <c r="B1" t="str">
-        <v>确认启动云主机</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>start</v>
-      </c>
-      <c r="B2" t="str">
-        <v>'启动'</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>confirm_stop_vm</v>
-      </c>
-      <c r="B3" t="str">
-        <v>确认停止云主机</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>stop_tips</v>
-      </c>
-      <c r="B4" t="str">
-        <v>'停止提示'</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>cofirm_restart_vm</v>
-      </c>
-      <c r="B5" t="str">
-        <v>确认重启云主机</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>restart_tips</v>
-      </c>
-      <c r="B6" t="str">
-        <v>'重启提示'</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>user_is_disabled</v>
-      </c>
-      <c r="B7" t="str">
-        <v>用户已经被禁用</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>money_isNot_enough</v>
-      </c>
-      <c r="B8" t="str">
-        <v>'余额不足，是否去充值？'</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>tips</v>
-      </c>
-      <c r="B9" t="str">
-        <v>'提示'</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>recharge</v>
-      </c>
-      <c r="B10" t="str">
-        <v>'充值'</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>cancel</v>
-      </c>
-      <c r="B11" t="str">
-        <v>'取消'</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Tips</v>
-      </c>
-      <c r="B12" t="str">
-        <v>提示</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>no_auth_to_operate</v>
-      </c>
-      <c r="B13" t="str">
-        <v>'无权操作'</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>confirm</v>
-      </c>
-      <c r="B14" t="str">
-        <v>'确定'</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>unbind_pip</v>
-      </c>
-      <c r="B15" t="str">
-        <v>'解绑公网IP'</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>unbind_tips</v>
-      </c>
-      <c r="B16" t="str">
-        <v>'解绑后若需绑定公网IP，仅支持绑定与云主机同可用区或带全可用区属性的公网IP'</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>confirm_unbind_pip</v>
-      </c>
-      <c r="B17" t="str">
-        <v xml:space="preserve">'确认解绑公网IP </v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>oprate_success</v>
-      </c>
-      <c r="B18" t="str">
-        <v>'操作成功'</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B18"/>
+    <ignoredError sqref="C1:C18 A1:A18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>